--- a/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>113168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96734</v>
+        <v>96617</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134090</v>
+        <v>132604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1638428072483451</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1400506038681092</v>
+        <v>0.1398810187749861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1941337666824058</v>
+        <v>0.1919821400043229</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>393</v>
@@ -762,19 +762,19 @@
         <v>206837</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>188833</v>
+        <v>188860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>227789</v>
+        <v>224989</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2817258387829704</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2572025601553712</v>
+        <v>0.2572394192636719</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3102626302044544</v>
+        <v>0.3064492979845841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>539</v>
@@ -783,19 +783,19 @@
         <v>320005</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>296534</v>
+        <v>293355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>349906</v>
+        <v>349373</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2245824992576274</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2081101938302053</v>
+        <v>0.2058795133099056</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2455669425333375</v>
+        <v>0.2451930717265919</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>577542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>556620</v>
+        <v>558106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>593976</v>
+        <v>594093</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8361571927516548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8058662333175945</v>
+        <v>0.8080178599956783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8599493961318908</v>
+        <v>0.8601189812250138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>848</v>
@@ -833,19 +833,19 @@
         <v>527343</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>506391</v>
+        <v>509191</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>545347</v>
+        <v>545320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7182741612170295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6897373697955456</v>
+        <v>0.6935507020154159</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7427974398446288</v>
+        <v>0.7427605807363281</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1432</v>
@@ -854,19 +854,19 @@
         <v>1104884</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1074983</v>
+        <v>1075516</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1128355</v>
+        <v>1131534</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7754175007423726</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7544330574666623</v>
+        <v>0.7548069282734081</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7918898061697948</v>
+        <v>0.7941204866900943</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>136471</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116495</v>
+        <v>116907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158593</v>
+        <v>161131</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1301067131483462</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1110625851075806</v>
+        <v>0.1114550376256069</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1511966216890523</v>
+        <v>0.1536160824856775</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>460</v>
@@ -979,19 +979,19 @@
         <v>292452</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>267409</v>
+        <v>268472</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>318840</v>
+        <v>318563</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2729437476354422</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2495708508177841</v>
+        <v>0.2505633596487607</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2975709957740196</v>
+        <v>0.2973126298599433</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>619</v>
@@ -1000,19 +1000,19 @@
         <v>428923</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>394544</v>
+        <v>395246</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>463003</v>
+        <v>463781</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.20228499518115</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1860711096693784</v>
+        <v>0.1864025015334763</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2183574633697221</v>
+        <v>0.2187245041494324</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>912446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>890324</v>
+        <v>887786</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>932422</v>
+        <v>932010</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8698932868516538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8488033783109484</v>
+        <v>0.8463839175143225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8889374148924194</v>
+        <v>0.8885449623743931</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1057</v>
@@ -1050,19 +1050,19 @@
         <v>779022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>752634</v>
+        <v>752911</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>804065</v>
+        <v>803002</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7270562523645577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7024290042259804</v>
+        <v>0.7026873701400564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7504291491822159</v>
+        <v>0.7494366403512392</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1862</v>
@@ -1071,19 +1071,19 @@
         <v>1691468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1657388</v>
+        <v>1656610</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1725847</v>
+        <v>1725145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7977150048188499</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7816425366302778</v>
+        <v>0.7812754958505675</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8139288903306213</v>
+        <v>0.8135974984665236</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>98977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80422</v>
+        <v>82933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119285</v>
+        <v>119442</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1232473535880587</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1001431502509962</v>
+        <v>0.1032690360269183</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1485358422240013</v>
+        <v>0.1487306525037356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>322</v>
@@ -1196,19 +1196,19 @@
         <v>233528</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210093</v>
+        <v>213512</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259263</v>
+        <v>257721</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2875047571305377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2586533352183607</v>
+        <v>0.2628615957060406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3191873560735085</v>
+        <v>0.3172895799624256</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>420</v>
@@ -1217,19 +1217,19 @@
         <v>332505</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>303845</v>
+        <v>302352</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364692</v>
+        <v>365830</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2058430857505231</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1881004174814493</v>
+        <v>0.1871765777218635</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2257691299872788</v>
+        <v>0.2264734246215727</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>704096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>683788</v>
+        <v>683631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>722651</v>
+        <v>720140</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8767526464119414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8514641577759986</v>
+        <v>0.8512693474962645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8998568497490037</v>
+        <v>0.8967309639730816</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>725</v>
@@ -1267,19 +1267,19 @@
         <v>578731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>552996</v>
+        <v>554538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>602166</v>
+        <v>598747</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7124952428694622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6808126439264915</v>
+        <v>0.6827104200375745</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7413466647816395</v>
+        <v>0.7371384042939599</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1303</v>
@@ -1288,19 +1288,19 @@
         <v>1282827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1250640</v>
+        <v>1249502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1311487</v>
+        <v>1312980</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7941569142494769</v>
+        <v>0.7941569142494768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.774230870012721</v>
+        <v>0.7735265753784272</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8118995825185508</v>
+        <v>0.8128234222781363</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>147722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127910</v>
+        <v>126660</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>168399</v>
+        <v>170413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1492051123798792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.129194324950261</v>
+        <v>0.127931431985597</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1700895688368386</v>
+        <v>0.1721237866357276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>469</v>
@@ -1413,19 +1413,19 @@
         <v>317420</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>291299</v>
+        <v>292618</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>345362</v>
+        <v>344454</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2836531523717531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2603114257000491</v>
+        <v>0.2614903672696687</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3086231958310376</v>
+        <v>0.3078113891025872</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>641</v>
@@ -1434,19 +1434,19 @@
         <v>465142</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>432961</v>
+        <v>432047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>500793</v>
+        <v>499171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2205401193965323</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2052819229170165</v>
+        <v>0.2048485931104658</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2374433156005837</v>
+        <v>0.2366744640987993</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>842340</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>821663</v>
+        <v>819649</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>862152</v>
+        <v>863402</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8507948876201209</v>
+        <v>0.8507948876201208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8299104311631613</v>
+        <v>0.8278762133642722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.870805675049739</v>
+        <v>0.872068568014403</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1093</v>
@@ -1484,19 +1484,19 @@
         <v>801621</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>773679</v>
+        <v>774587</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>827742</v>
+        <v>826423</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.716346847628247</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6913768041689626</v>
+        <v>0.6921886108974127</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7396885742999509</v>
+        <v>0.738509632730331</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1927</v>
@@ -1505,19 +1505,19 @@
         <v>1643962</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1608311</v>
+        <v>1609933</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1676143</v>
+        <v>1677057</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7794598806034678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7625566843994162</v>
+        <v>0.7633255359012008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7947180770829834</v>
+        <v>0.7951514068895343</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>496338</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>458790</v>
+        <v>456484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>538974</v>
+        <v>539034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1404957180511736</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.129867320865736</v>
+        <v>0.1292144771635987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1525644645291823</v>
+        <v>0.1525813764115688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1644</v>
@@ -1630,19 +1630,19 @@
         <v>1050237</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>994144</v>
+        <v>1002324</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1095090</v>
+        <v>1096370</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2810410391840895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2660306105763812</v>
+        <v>0.2682196122602832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2930435315698691</v>
+        <v>0.2933860130067676</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2219</v>
@@ -1651,19 +1651,19 @@
         <v>1546575</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1484299</v>
+        <v>1483431</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1614309</v>
+        <v>1608698</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2127422016770779</v>
+        <v>0.2127422016770778</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.204175684077065</v>
+        <v>0.2040562668892864</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2220594526485106</v>
+        <v>0.2212876510752373</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3036424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2993788</v>
+        <v>2993728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3073972</v>
+        <v>3076278</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8595042819488264</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.847435535470818</v>
+        <v>0.8474186235884312</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8701326791342641</v>
+        <v>0.8707855228364012</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3723</v>
@@ -1701,19 +1701,19 @@
         <v>2686717</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2641864</v>
+        <v>2640584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2742810</v>
+        <v>2734630</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7189589608159107</v>
+        <v>0.7189589608159106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.706956468430131</v>
+        <v>0.7066139869932319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7339693894236188</v>
+        <v>0.7317803877397165</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6524</v>
@@ -1722,19 +1722,19 @@
         <v>5723141</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5655407</v>
+        <v>5661018</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5785417</v>
+        <v>5786285</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.787257798322922</v>
+        <v>0.7872577983229221</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7779405473514892</v>
+        <v>0.7787123489247627</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7958243159229351</v>
+        <v>0.795943733110714</v>
       </c>
     </row>
     <row r="18">
